--- a/results/Reg_result_wind.xlsx
+++ b/results/Reg_result_wind.xlsx
@@ -515,49 +515,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.595700514714569</v>
+        <v>9.885135962337825</v>
       </c>
       <c r="C2" t="n">
-        <v>8.742854820152354</v>
+        <v>8.617752600969302</v>
       </c>
       <c r="D2" t="n">
-        <v>10.46810400416445</v>
+        <v>10.33143707665598</v>
       </c>
       <c r="E2" t="n">
-        <v>8.901592898342129</v>
+        <v>9.026718694503387</v>
       </c>
       <c r="F2" t="n">
-        <v>10.77299038494414</v>
+        <v>10.48677899168146</v>
       </c>
       <c r="G2" t="n">
-        <v>10.99106105072394</v>
+        <v>11.13231966990435</v>
       </c>
       <c r="H2" t="n">
-        <v>9.706180151737195</v>
+        <v>10.24089607922481</v>
       </c>
       <c r="I2" t="n">
-        <v>9.034270708707719</v>
+        <v>8.877942761470294</v>
       </c>
       <c r="J2" t="n">
-        <v>10.64551030197569</v>
+        <v>10.83344898740094</v>
       </c>
       <c r="K2" t="n">
-        <v>10.69749983216875</v>
+        <v>10.94868145524048</v>
       </c>
       <c r="L2" t="n">
-        <v>8.629810032671637</v>
+        <v>8.747939589530533</v>
       </c>
       <c r="M2" t="n">
-        <v>9.512812489470287</v>
+        <v>9.663079324017239</v>
       </c>
       <c r="N2" t="n">
-        <v>11.91595903739258</v>
+        <v>12.0943182927827</v>
       </c>
       <c r="O2" t="n">
-        <v>8.535719038838254</v>
+        <v>8.9015775901431</v>
       </c>
       <c r="P2" t="n">
-        <v>9.083913493798338</v>
+        <v>9.402516490669564</v>
       </c>
     </row>
     <row r="3">
@@ -565,49 +565,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3443284319106039</v>
+        <v>-0.3933032992204761</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1677898871054482</v>
+        <v>-0.1466215587787953</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4741219781324502</v>
+        <v>-0.4509968056791822</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2004678466571812</v>
+        <v>-0.2216401644031936</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5293176068885208</v>
+        <v>-0.4808882761941704</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.5362251438670049</v>
+        <v>-0.5601272684600538</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3232603312650655</v>
+        <v>-0.4137386807976613</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3002562201407779</v>
+        <v>-0.2738042408284731</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5059956833910031</v>
+        <v>-0.5377964605821706</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.4779577137381679</v>
+        <v>-0.520459718111276</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1622099438452491</v>
+        <v>-0.1821984401405221</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3151128611105958</v>
+        <v>-0.3405392501152689</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.7006518393114134</v>
+        <v>-0.7308316978530964</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2073297372771044</v>
+        <v>-0.2692360246771852</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.2252249089347456</v>
+        <v>-0.2791351663839501</v>
       </c>
     </row>
     <row r="4">
@@ -615,49 +615,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2347854683486064</v>
+        <v>0.2756558215827666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2828979949567602</v>
+        <v>0.2573378951961205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2517517478723342</v>
+        <v>0.2346451430030998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1116159024795072</v>
+        <v>0.1257363849853937</v>
       </c>
       <c r="F4" t="n">
-        <v>0.368510010249439</v>
+        <v>0.3679740793016473</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6002156499373834</v>
+        <v>0.5263917086614048</v>
       </c>
       <c r="H4" t="n">
-        <v>0.361492909035881</v>
+        <v>0.4652642320614955</v>
       </c>
       <c r="I4" t="n">
-        <v>0.366860225279651</v>
+        <v>0.3325394677740252</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6738489986009757</v>
+        <v>0.5945383818905342</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6231367913166754</v>
+        <v>0.5621024745560772</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2838792771321762</v>
+        <v>0.2567723425716453</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4448122337447408</v>
+        <v>0.3962517170067417</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4423274846649151</v>
+        <v>0.3990141238497889</v>
       </c>
       <c r="O4" t="n">
-        <v>0.219496712072979</v>
+        <v>0.302725537219417</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9528090765903027</v>
+        <v>0.8482756995338175</v>
       </c>
     </row>
     <row r="5">
@@ -665,49 +665,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03806069819130593</v>
+        <v>0.04424702496362989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04586014322227003</v>
+        <v>0.0413067143202412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04081107473259656</v>
+        <v>0.03766417643726536</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01809387611381093</v>
+        <v>0.02018263548123487</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05973857061610689</v>
+        <v>0.05906553389419372</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09730000269031081</v>
+        <v>0.08449401481911271</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0586010395186945</v>
+        <v>0.07468210891576581</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05947112660324993</v>
+        <v>0.05337773041579533</v>
       </c>
       <c r="J5" t="n">
-        <v>0.109236587522465</v>
+        <v>0.09543261039908044</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1010157123991509</v>
+        <v>0.09022614534673694</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04601921731225402</v>
+        <v>0.04121593437244355</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07210780249492259</v>
+        <v>0.06360453232443045</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07170500378053217</v>
+        <v>0.06404794136923928</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03558226227097423</v>
+        <v>0.04859213321005088</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1544583612994107</v>
+        <v>0.1361613763054296</v>
       </c>
     </row>
     <row r="6">
@@ -851,7 +851,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
